--- a/excel/3/2324 1st.xlsx
+++ b/excel/3/2324 1st.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3109,7 +3109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="101" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
